--- a/reports/corpus_1-unigram_bigram-fold-4.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,190 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>?</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CDC</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CDF</t>
+          <t>CDI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDI</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>NNU</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PRL</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>PRN</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -642,124 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8375</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4160583941605839</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9672131147540983</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.9668737060041408</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.25</v>
+        <v>0.8941176470588236</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7651006711409396</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.408</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2184873949579832</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03125</v>
+        <v>0.7552558508528362</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7247247726709085</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.8970588235294118</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.5238095238095238</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.3373493975903614</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.5845896147403685</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.3808298639002304</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.8396284135072187</v>
+        <v>0.8609244600335955</v>
       </c>
     </row>
     <row r="3">
@@ -778,115 +642,64 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="L3" t="n">
-        <v>0.875</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.460552268244576</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8461538461538461</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.9306122448979591</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.9701492537313433</v>
       </c>
       <c r="T3" t="n">
-        <v>0.17157712305026</v>
+        <v>0.9</v>
       </c>
       <c r="U3" t="n">
-        <v>0.896551724137931</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.7552558508528362</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.8520450053390054</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5845896147403685</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.6367640497642569</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.5845896147403685</v>
+        <v>0.7552558508528362</v>
       </c>
     </row>
     <row r="4">
@@ -896,124 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="E4" t="n">
+        <v>0.8979591836734693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8275862068965518</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8786885245901639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.8455284552845528</v>
+        <v>0.959349593495935</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5560975609756097</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.6239144956579827</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9278350515463918</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.9440993788819877</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8397790055248618</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.921985815602837</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.5614678899082568</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3513513513513513</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.7552558508528362</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5</v>
+        <v>0.7581941078423184</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.9457364341085273</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6769230769230768</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.9041095890410958</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.326530612244898</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.495575221238938</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.5845896147403685</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.4304469044941728</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.5599179664219328</v>
+        <v>0.7579509524025793</v>
       </c>
     </row>
     <row r="5">
@@ -1023,124 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>288</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>145</v>
+      </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>61</v>
+      </c>
+      <c r="L5" t="n">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>48</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1014</v>
+      </c>
+      <c r="P5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="n">
         <v>76</v>
       </c>
-      <c r="C5" t="n">
-        <v>97</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>53</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>59</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>13</v>
-      </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="T5" t="n">
-        <v>577</v>
+        <v>170</v>
       </c>
       <c r="U5" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.7552558508528362</v>
       </c>
       <c r="W5" t="n">
-        <v>27</v>
+        <v>2521</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>61</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.5845896147403685</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1194</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1194</v>
+        <v>2521</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram-fold-4.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-4.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0.8148148148148148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8375</v>
+        <v>0.88125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9503546099290781</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4160583941605839</v>
+        <v>0.635036496350365</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9710144927536232</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4108108108108108</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9647058823529412</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.7550335570469798</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6266666666666667</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.9668737060041408</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8941176470588236</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.7651006711409396</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8783783783783784</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="V2" t="n">
-        <v>0.7552558508528362</v>
+        <v>0.8187227290757636</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7247247726709085</v>
+        <v>0.8182122903125748</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8609244600335955</v>
+        <v>0.8692539375826346</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9241379310344827</v>
+        <v>0.9337748344370861</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9672131147540983</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8382352941176471</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="M3" t="n">
         <v>0.75</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.460552268244576</v>
+        <v>0.5818858560794045</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -681,25 +681,25 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9306122448979591</v>
+        <v>0.9493670886075949</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9</v>
+        <v>0.8422939068100358</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7552558508528362</v>
+        <v>0.8187227290757636</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8520450053390054</v>
+        <v>0.8593180804570283</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7552558508528362</v>
+        <v>0.8187227290757636</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9473684210526316</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0.8979591836734693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8275862068965518</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8786885245901639</v>
+        <v>0.9067524115755626</v>
       </c>
       <c r="I4" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9745454545454546</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.959349593495935</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5560975609756097</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="M4" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7276958882854927</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5823754789272031</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9820359281437125</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.8411214953271028</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.8794788273615636</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.7186544342507645</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.6239144956579827</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9440993788819877</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.8397790055248618</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.921985815602837</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.5614678899082568</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.8333333333333333</v>
-      </c>
       <c r="V4" t="n">
-        <v>0.7552558508528362</v>
+        <v>0.8187227290757636</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7581941078423184</v>
+        <v>0.8245231823894263</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7579509524025793</v>
+        <v>0.8209549319733809</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I5" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L5" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="M5" t="n">
         <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O5" t="n">
-        <v>1014</v>
+        <v>806</v>
       </c>
       <c r="P5" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R5" t="n">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S5" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T5" t="n">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7552558508528362</v>
+        <v>0.8187227290757636</v>
       </c>
       <c r="W5" t="n">
         <v>2521</v>
